--- a/excel_test/baidu.xlsx
+++ b/excel_test/baidu.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -29,13 +29,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -43,14 +44,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -65,31 +66,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,6 +76,36 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,7 +150,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -158,22 +166,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -187,31 +180,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,151 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,6 +385,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,15 +442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -440,17 +453,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,162 +471,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="42">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="17" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="11" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="19" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="41">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="21" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="5" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="25" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,13 +1039,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -1082,7 +1075,7 @@
           <t>python</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1099,7 +1092,7 @@
           <t>selenium</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1116,7 +1109,24 @@
           <t>openpyxl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>二琳爱吃肉</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>二琳爱吃肉</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
